--- a/data/trans_orig/RUIDO_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_2-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE37A204-076B-430C-B5D0-0C6EC6850C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B63BE3B-CF58-4A28-895F-269F28FC0030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3969CC7-4027-4B21-BCC1-24B6B45DE8F3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0F2B10A-E3F5-4BB9-9A60-6A7815FDAFE1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,22 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,19%</t>
+    <t>16,65%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>13,82%</t>
+    <t>13,58%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>No puedo permitírmelo (económicamente)</t>
@@ -101,88 +101,88 @@
     <t>25,05%</t>
   </si>
   <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
   </si>
   <si>
     <t>27,93%</t>
   </si>
   <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
   </si>
   <si>
     <t>26,69%</t>
   </si>
   <si>
-    <t>17,78%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>Ya pago demasiados impuestos</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>37,29%</t>
   </si>
   <si>
-    <t>Ya pago demasiados impuestos</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
     <t>22,1%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
   <si>
     <t>No me siento responsable del ruido</t>
@@ -191,28 +191,28 @@
     <t>11,66%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -224,133 +224,136 @@
     <t>10,67%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>9,13%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
   </si>
   <si>
     <t>28,97%</t>
   </si>
   <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
   </si>
   <si>
     <t>34,47%</t>
   </si>
   <si>
-    <t>43,57%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
   </si>
   <si>
     <t>47,19%</t>
   </si>
   <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
   </si>
   <si>
     <t>40,06%</t>
   </si>
   <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
   </si>
   <si>
     <t>11,35%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
   </si>
   <si>
     <t>13,63%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -359,133 +362,133 @@
     <t>6,73%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>12,66%</t>
   </si>
   <si>
     <t>25,0%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
   </si>
   <si>
     <t>21,75%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
   </si>
   <si>
     <t>23,63%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
   </si>
   <si>
     <t>42,55%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
   </si>
   <si>
     <t>35,57%</t>
   </si>
   <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
   </si>
   <si>
     <t>39,61%</t>
   </si>
   <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>27,37%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -494,256 +497,253 @@
     <t>5,97%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
   </si>
   <si>
     <t>16,76%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
   <si>
     <t>50,11%</t>
   </si>
   <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
   </si>
   <si>
     <t>36,68%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
   </si>
   <si>
     <t>43,61%</t>
   </si>
   <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>10,92%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
+    <t>5,12%</t>
   </si>
   <si>
     <t>16,78%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
   </si>
   <si>
     <t>7,4%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
   </si>
   <si>
     <t>23,0%</t>
   </si>
   <si>
-    <t>27,51%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
   </si>
   <si>
     <t>24,94%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
   </si>
   <si>
     <t>23,9%</t>
   </si>
   <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
   </si>
   <si>
     <t>42,88%</t>
   </si>
   <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
   </si>
   <si>
     <t>40,96%</t>
   </si>
   <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
+    <t>10,08%</t>
   </si>
   <si>
     <t>15,14%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>12,41%</t>
@@ -752,7 +752,7 @@
     <t>10,09%</t>
   </si>
   <si>
-    <t>15,03%</t>
+    <t>15,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1167,7 +1167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE44EEAC-9E1A-4C4E-9246-A945E3FDF5D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D569E6D-AFE9-4BD7-AB6A-1D03F8A88D77}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1704,10 +1704,10 @@
         <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>47</v>
@@ -1716,13 +1716,13 @@
         <v>27667</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>86</v>
@@ -1731,13 +1731,13 @@
         <v>53500</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,13 +1752,13 @@
         <v>8506</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -1767,13 +1767,13 @@
         <v>5971</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -1782,13 +1782,13 @@
         <v>14477</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,13 +1803,13 @@
         <v>10890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -1818,13 +1818,13 @@
         <v>7311</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -1833,13 +1833,13 @@
         <v>18201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,7 +1895,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1907,13 +1907,13 @@
         <v>5481</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -1922,13 +1922,13 @@
         <v>5367</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -1937,10 +1937,10 @@
         <v>10849</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>114</v>
@@ -2063,10 +2063,10 @@
         <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -2075,13 +2075,13 @@
         <v>11331</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -2090,13 +2090,13 @@
         <v>26213</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,13 +2111,13 @@
         <v>6057</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -2126,13 +2126,13 @@
         <v>8601</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -2141,13 +2141,13 @@
         <v>14658</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,7 +2203,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2215,13 +2215,13 @@
         <v>6184</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -2230,13 +2230,13 @@
         <v>8310</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -2245,13 +2245,13 @@
         <v>14494</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,13 +2266,13 @@
         <v>17376</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -2281,7 +2281,7 @@
         <v>26641</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>164</v>
@@ -2374,7 +2374,7 @@
         <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -2383,13 +2383,13 @@
         <v>10377</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -2398,13 +2398,13 @@
         <v>28483</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2419,13 @@
         <v>10042</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -2577,10 +2577,10 @@
         <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>80</v>
@@ -2589,13 +2589,13 @@
         <v>59425</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>174</v>
@@ -2604,13 +2604,13 @@
         <v>123213</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2625,13 @@
         <v>118929</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>144</v>
@@ -2640,13 +2640,13 @@
         <v>92291</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>306</v>
@@ -2655,13 +2655,13 @@
         <v>211219</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2676,13 @@
         <v>45109</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>47</v>
@@ -2691,13 +2691,13 @@
         <v>32974</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="M31" s="7">
         <v>101</v>

--- a/data/trans_orig/RUIDO_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B63BE3B-CF58-4A28-895F-269F28FC0030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00BA852A-E94D-4203-A6A6-A1D6B27901C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0F2B10A-E3F5-4BB9-9A60-6A7815FDAFE1}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{710F1BB3-98E5-4B3C-AA13-590F4F6382CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="238">
   <si>
     <t>Población según el por que no pagarían para reducir el ruido en su municipio o lugar de residencia en 2023 (Tasa respuesta: 38,02%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,148 +71,148 @@
     <t>Otro motivo</t>
   </si>
   <si>
-    <t>5,02%</t>
+    <t>3,14%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>No puedo permitírmelo (económicamente)</t>
   </si>
   <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
   </si>
   <si>
     <t>Ya pago demasiados impuestos</t>
   </si>
   <si>
-    <t>37,44%</t>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
   </si>
   <si>
     <t>No me siento responsable del ruido</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -221,538 +221,532 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
+    <t>14,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1167,7 +1161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D569E6D-AFE9-4BD7-AB6A-1D03F8A88D77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CC5727-A652-4675-9B11-A22B5664D436}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1288,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>872</v>
+        <v>728</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1303,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>727</v>
+        <v>912</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1318,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>1599</v>
+        <v>1640</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1336,10 +1330,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>4350</v>
+        <v>6898</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1351,10 +1345,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>6411</v>
+        <v>4756</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
@@ -1369,7 +1363,7 @@
         <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>10761</v>
+        <v>11654</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
@@ -1387,10 +1381,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>6502</v>
+        <v>7767</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1402,10 +1396,10 @@
         <v>32</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7">
-        <v>7810</v>
+        <v>6948</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -1420,7 +1414,7 @@
         <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>14312</v>
+        <v>14716</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1438,10 +1432,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>3616</v>
+        <v>5132</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1453,10 +1447,10 @@
         <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>5295</v>
+        <v>3546</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -1471,7 +1465,7 @@
         <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>8911</v>
+        <v>8678</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1489,10 +1483,10 @@
         <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>2025</v>
+        <v>2651</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1504,10 +1498,10 @@
         <v>52</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>2711</v>
+        <v>2258</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>53</v>
@@ -1522,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>4736</v>
+        <v>4910</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>56</v>
@@ -1540,25 +1534,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>23177</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="7">
         <v>35</v>
       </c>
-      <c r="D9" s="7">
-        <v>17364</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
       <c r="I9" s="7">
-        <v>22954</v>
+        <v>18420</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -1573,7 +1567,7 @@
         <v>81</v>
       </c>
       <c r="N9" s="7">
-        <v>40319</v>
+        <v>41598</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -1593,10 +1587,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>7999</v>
+        <v>4281</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1608,10 +1602,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>4201</v>
+        <v>8277</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1626,16 +1620,16 @@
         <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>12200</v>
+        <v>12558</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,49 +1638,49 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7">
+        <v>14030</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="7">
         <v>34</v>
       </c>
-      <c r="D11" s="7">
-        <v>21705</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>23846</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="7">
-        <v>23</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13476</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
       </c>
       <c r="N11" s="7">
-        <v>35181</v>
+        <v>37876</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,49 +1689,49 @@
         <v>29</v>
       </c>
       <c r="C12" s="7">
+        <v>47</v>
+      </c>
+      <c r="D12" s="7">
+        <v>27214</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="7">
         <v>39</v>
       </c>
-      <c r="D12" s="7">
-        <v>25833</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>26107</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="7">
-        <v>47</v>
-      </c>
-      <c r="I12" s="7">
-        <v>27667</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>86</v>
       </c>
       <c r="N12" s="7">
-        <v>53500</v>
+        <v>53321</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,49 +1740,49 @@
         <v>39</v>
       </c>
       <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5547</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="7">
         <v>12</v>
       </c>
-      <c r="D13" s="7">
-        <v>8506</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>8330</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5971</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>14477</v>
+        <v>13876</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,49 +1791,49 @@
         <v>49</v>
       </c>
       <c r="C14" s="7">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7284</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="7">
         <v>17</v>
       </c>
-      <c r="D14" s="7">
-        <v>10890</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>11210</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="7">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7">
-        <v>7311</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
       </c>
       <c r="N14" s="7">
-        <v>18201</v>
+        <v>18493</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1848,25 +1842,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>97</v>
+      </c>
+      <c r="D15" s="7">
+        <v>58355</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="7">
         <v>117</v>
       </c>
-      <c r="D15" s="7">
-        <v>74933</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="7">
-        <v>97</v>
-      </c>
       <c r="I15" s="7">
-        <v>58625</v>
+        <v>77770</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -1881,7 +1875,7 @@
         <v>214</v>
       </c>
       <c r="N15" s="7">
-        <v>133559</v>
+        <v>136125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -1895,55 +1889,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5278</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="7">
         <v>6</v>
       </c>
-      <c r="D16" s="7">
-        <v>5481</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>5839</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5367</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>10849</v>
+        <v>11116</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,49 +1946,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7">
+        <v>14228</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="7">
         <v>25</v>
       </c>
-      <c r="D17" s="7">
-        <v>20357</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>22305</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="7">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7">
-        <v>12897</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
       </c>
       <c r="N17" s="7">
-        <v>33254</v>
+        <v>36533</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2003,49 +1997,49 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7">
+        <v>20685</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="7">
         <v>46</v>
       </c>
-      <c r="D18" s="7">
-        <v>34648</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="I18" s="7">
+        <v>35744</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="7">
-        <v>30</v>
-      </c>
-      <c r="I18" s="7">
-        <v>21089</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>76</v>
       </c>
       <c r="N18" s="7">
-        <v>55737</v>
+        <v>56428</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,49 +2048,49 @@
         <v>39</v>
       </c>
       <c r="C19" s="7">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7">
+        <v>10788</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="7">
         <v>16</v>
       </c>
-      <c r="D19" s="7">
-        <v>14881</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="I19" s="7">
+        <v>14088</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="7">
-        <v>15</v>
-      </c>
-      <c r="I19" s="7">
-        <v>11331</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
       </c>
       <c r="N19" s="7">
-        <v>26213</v>
+        <v>24875</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2105,49 +2099,49 @@
         <v>49</v>
       </c>
       <c r="C20" s="7">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7">
+        <v>8248</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="7">
         <v>7</v>
       </c>
-      <c r="D20" s="7">
-        <v>6057</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>5978</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="7">
-        <v>12</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8601</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
       </c>
       <c r="N20" s="7">
-        <v>14658</v>
+        <v>14226</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,25 +2150,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>79</v>
+      </c>
+      <c r="D21" s="7">
+        <v>59226</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>100</v>
       </c>
-      <c r="D21" s="7">
-        <v>81425</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>79</v>
-      </c>
       <c r="I21" s="7">
-        <v>59286</v>
+        <v>83954</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -2189,7 +2183,7 @@
         <v>179</v>
       </c>
       <c r="N21" s="7">
-        <v>140711</v>
+        <v>143179</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -2203,55 +2197,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7">
+        <v>8248</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="7">
         <v>8</v>
       </c>
-      <c r="D22" s="7">
-        <v>6184</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>6458</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" s="7">
-        <v>10</v>
-      </c>
-      <c r="I22" s="7">
-        <v>8310</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
       </c>
       <c r="N22" s="7">
-        <v>14494</v>
+        <v>14706</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,49 +2254,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
+        <v>29</v>
+      </c>
+      <c r="D23" s="7">
+        <v>44928</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="7">
         <v>25</v>
       </c>
-      <c r="D23" s="7">
-        <v>17376</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="I23" s="7">
+        <v>18589</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H23" s="7">
-        <v>29</v>
-      </c>
-      <c r="I23" s="7">
-        <v>26641</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>54</v>
       </c>
       <c r="N23" s="7">
-        <v>44017</v>
+        <v>63517</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,49 +2305,49 @@
         <v>29</v>
       </c>
       <c r="C24" s="7">
+        <v>51</v>
+      </c>
+      <c r="D24" s="7">
+        <v>36469</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="7">
         <v>64</v>
       </c>
-      <c r="D24" s="7">
-        <v>51945</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="I24" s="7">
+        <v>54618</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H24" s="7">
-        <v>51</v>
-      </c>
-      <c r="I24" s="7">
-        <v>35724</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>115</v>
       </c>
       <c r="N24" s="7">
-        <v>87670</v>
+        <v>91087</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,49 +2356,49 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7">
+        <v>10022</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="7">
         <v>20</v>
       </c>
-      <c r="D25" s="7">
-        <v>18106</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>17238</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H25" s="7">
-        <v>14</v>
-      </c>
-      <c r="I25" s="7">
-        <v>10377</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
       </c>
       <c r="N25" s="7">
-        <v>28483</v>
+        <v>27261</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,49 +2407,49 @@
         <v>49</v>
       </c>
       <c r="C26" s="7">
+        <v>24</v>
+      </c>
+      <c r="D26" s="7">
+        <v>15524</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26" s="7">
         <v>11</v>
       </c>
-      <c r="D26" s="7">
-        <v>10042</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>9829</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="7">
-        <v>24</v>
-      </c>
-      <c r="I26" s="7">
-        <v>16342</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
       </c>
       <c r="N26" s="7">
-        <v>26384</v>
+        <v>25353</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,7 +2461,7 @@
         <v>128</v>
       </c>
       <c r="D27" s="7">
-        <v>103653</v>
+        <v>115192</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -2482,7 +2476,7 @@
         <v>128</v>
       </c>
       <c r="I27" s="7">
-        <v>97394</v>
+        <v>106733</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -2497,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="N27" s="7">
-        <v>201047</v>
+        <v>221925</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -2517,49 +2511,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>25</v>
+      </c>
+      <c r="D28" s="7">
+        <v>18535</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H28" s="7">
         <v>31</v>
       </c>
-      <c r="D28" s="7">
-        <v>20536</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="I28" s="7">
+        <v>21485</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="H28" s="7">
-        <v>25</v>
-      </c>
-      <c r="I28" s="7">
-        <v>18605</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>56</v>
       </c>
       <c r="N28" s="7">
-        <v>39141</v>
+        <v>40020</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,49 +2562,49 @@
         <v>19</v>
       </c>
       <c r="C29" s="7">
+        <v>80</v>
+      </c>
+      <c r="D29" s="7">
+        <v>80084</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H29" s="7">
         <v>94</v>
       </c>
-      <c r="D29" s="7">
-        <v>63788</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="I29" s="7">
+        <v>69497</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="H29" s="7">
-        <v>80</v>
-      </c>
-      <c r="I29" s="7">
-        <v>59425</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>174</v>
       </c>
       <c r="N29" s="7">
-        <v>123213</v>
+        <v>149581</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,49 +2613,49 @@
         <v>29</v>
       </c>
       <c r="C30" s="7">
+        <v>144</v>
+      </c>
+      <c r="D30" s="7">
+        <v>92135</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H30" s="7">
         <v>162</v>
       </c>
-      <c r="D30" s="7">
-        <v>118929</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="I30" s="7">
+        <v>123418</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="H30" s="7">
-        <v>144</v>
-      </c>
-      <c r="I30" s="7">
-        <v>92291</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>306</v>
       </c>
       <c r="N30" s="7">
-        <v>211219</v>
+        <v>215553</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,49 +2664,49 @@
         <v>39</v>
       </c>
       <c r="C31" s="7">
+        <v>47</v>
+      </c>
+      <c r="D31" s="7">
+        <v>31489</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H31" s="7">
         <v>54</v>
       </c>
-      <c r="D31" s="7">
-        <v>45109</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="I31" s="7">
+        <v>43201</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="H31" s="7">
-        <v>47</v>
-      </c>
-      <c r="I31" s="7">
-        <v>32974</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M31" s="7">
         <v>101</v>
       </c>
       <c r="N31" s="7">
-        <v>78083</v>
+        <v>74690</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,49 +2715,49 @@
         <v>49</v>
       </c>
       <c r="C32" s="7">
+        <v>54</v>
+      </c>
+      <c r="D32" s="7">
+        <v>33707</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" s="7">
         <v>39</v>
       </c>
-      <c r="D32" s="7">
-        <v>29014</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="I32" s="7">
+        <v>29276</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H32" s="7">
-        <v>54</v>
-      </c>
-      <c r="I32" s="7">
-        <v>34965</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>93</v>
       </c>
       <c r="N32" s="7">
-        <v>63979</v>
+        <v>62982</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,25 +2766,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>350</v>
+      </c>
+      <c r="D33" s="7">
+        <v>255950</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>380</v>
       </c>
-      <c r="D33" s="7">
-        <v>277375</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>350</v>
-      </c>
       <c r="I33" s="7">
-        <v>238260</v>
+        <v>286877</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -2805,7 +2799,7 @@
         <v>730</v>
       </c>
       <c r="N33" s="7">
-        <v>515635</v>
+        <v>542827</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>59</v>
@@ -2819,7 +2813,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
